--- a/Results/Calculation/lda-partial-ner-fasttext-money.xlsx
+++ b/Results/Calculation/lda-partial-ner-fasttext-money.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D2">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2">
-        <v>0.46</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="G2">
-        <v>0.77</v>
+        <v>0.7615894039735099</v>
       </c>
       <c r="H2">
-        <v>0.58</v>
+        <v>0.5808080808080809</v>
       </c>
       <c r="I2">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -461,25 +461,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C3">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D3">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F3">
-        <v>0.74</v>
+        <v>0.7386363636363636</v>
       </c>
       <c r="G3">
-        <v>0.88</v>
+        <v>0.8986175115207373</v>
       </c>
       <c r="H3">
-        <v>0.8</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="I3">
         <v>0.8</v>
@@ -490,28 +490,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C4">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E4">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F4">
-        <v>0.59</v>
+        <v>0.6047619047619047</v>
       </c>
       <c r="G4">
-        <v>0.77</v>
+        <v>0.8246753246753247</v>
       </c>
       <c r="H4">
-        <v>0.67</v>
+        <v>0.6978021978021979</v>
       </c>
       <c r="I4">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -519,28 +519,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C5">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F5">
-        <v>0.74</v>
+        <v>0.7445255474452555</v>
       </c>
       <c r="G5">
-        <v>0.8100000000000001</v>
+        <v>0.7846153846153846</v>
       </c>
       <c r="H5">
-        <v>0.77</v>
+        <v>0.7640449438202246</v>
       </c>
       <c r="I5">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>
